--- a/INDIVIDUAL_ARGUMENTS/chrisathe_athe.xlsx
+++ b/INDIVIDUAL_ARGUMENTS/chrisathe_athe.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="173" firstSheet="0" activeTab="0"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-  </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>#id</t>
   </si>
@@ -29,190 +28,286 @@
     <t>Christianity conflicts with historical, archaeological, astronomical, biological, and many other forms of evidence. It denies rational &amp; impartial common sense. Its teachings, written by an all powerful, all knowing, creator of the universe, are filled with contradictions. The arguments for Christianity just don't hold ground (bar one or two, and those are close). Atheism is not perfect, but it is the more logical position of the two.</t>
   </si>
   <si>
+    <t>438,0.2,19.02,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.03,0.0</t>
+  </si>
+  <si>
     <t>arg240625</t>
   </si>
   <si>
     <t>christians are also fun to lawl at because they waste half of their sunday going to church. What a waste!!!! HAHAHA</t>
   </si>
   <si>
+    <t>115,0.67,10.77,0.0,0.05,1.67,0.0,0.05,0.0,0.0,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg439197</t>
   </si>
   <si>
     <t>I'm sad to see the way this turned out. With not so little respect and so much spamming. I choose atheism over a Christianity because their is not enough evidence to soothe my curiosity. Christianity raises too many questions that it never answers.</t>
   </si>
   <si>
+    <t>248,0.25,14.54,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.03,0.0</t>
+  </si>
+  <si>
     <t>arg488149</t>
   </si>
   <si>
     <t>I am an atheist because i believe that we all have one life that we should enjoy and preserve for all future generations</t>
   </si>
   <si>
+    <t>120,1.0,13.59,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg231494</t>
   </si>
   <si>
     <t>we have scientific evidence that the flood of noah could not have happened. THINK ABOUT THIS : IF THE FLOOD OF NOAH HAPPENED, WE SHOULD EXPECT TO FIND THE REMAINS OF LONG DEAD ANIMALS AND PEOPLE ALL OVER THE WORLD, BUT WE DO NOT FIND THIS AT ALL. DINOSAUR BONES ARE FOUND IN SEVERAL DIFFERENT LAYERS OF ROCK STRATA, AT DIFFERENT DEPTHS. IF THE FLOOD HAD HAPPENED, WE SHOULD EXPECT TO FIND DINOSAURS AND ALL OTHERE REMAINS IN THE SAME LAYER OF ROCK BUT WE DONT.</t>
   </si>
   <si>
+    <t>460,0.5,13.94,0.0,0.02,1.0,0.0,0.84,0.0,0.25,0.2,0.2,0.07,0.0</t>
+  </si>
+  <si>
     <t>arg230365</t>
   </si>
   <si>
     <t>I'd like to point out how few disputs there are on the Christian side, that's cuz free minded people dont need to convince other's. We know that there isn't a god, and that its up to us to make our lives.</t>
   </si>
   <si>
+    <t>204,0.0,10.15,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg229388</t>
   </si>
   <si>
     <t>I find most religions absolutely ridiculous and illogical, the only people who follow them are those who were brainwashed in childhood and really have no individual thought process. Most of the followers at least. Then there are theists who will twist ANY logic to fit their views. They're intelligent ones that you have to watch out for ;)  I'm not an atheist by any means, but I'd rather call myself an atheist than a Christian.  It allows for more logic in my mind.</t>
   </si>
   <si>
+    <t>468,0.2,14.59,0.0,0.0,1.0,0.0,0.02,0.0,0.15,0.3,0.4,0.14,0.18</t>
+  </si>
+  <si>
     <t>arg244579</t>
   </si>
   <si>
     <t>Neither. Agnostic is the true answer. People can believe there is a God or they can believe there isn't- but they can never know. I personally believe there isn't a God but I can never prove this definitely.</t>
   </si>
   <si>
+    <t>207,0.5,11.67,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.03,0.06</t>
+  </si>
+  <si>
     <t>arg229398</t>
   </si>
   <si>
     <t>Notmymuse,  Give me one logical reason to believe Christianity. Just one.  I have yet to see one gad damn shred of evidence for Christianity. I have also seen mountains of evidence to the contrary.  Once you have discredited ALL evidence against Christianity, create an argument for Christianity with empirical fact (or a damn solid priori argument).  Once you have done this, disprove ALL logical arguments against Christianity.  Once you have done this, disprove all other religions.  -  Until such a time that you have done ALL of these things, it is illogical to believe in this bible bullshit.</t>
   </si>
   <si>
+    <t>598,0.25,16.55,0.0,0.01,1.0,0.0,0.03,0.0,0.3,0.35,0.35,0.21,0.35</t>
+  </si>
+  <si>
     <t>arg270902</t>
   </si>
   <si>
     <t>Religion in the past has caused many wars. It encourages racism , sexism and homophobia. It is something that gives us prejudice. It makes us hate one another. the time has come to put a stop to it.</t>
   </si>
   <si>
+    <t>198,0.0,10.55,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.05,0.07,0.06</t>
+  </si>
+  <si>
     <t>arg328210</t>
   </si>
   <si>
     <t>I'm Christian and very religious, but if the description of this argument is the qualifying factor, I'm going with Atheism. God isn't Christian.</t>
   </si>
   <si>
+    <t>144,0.5,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg240623</t>
   </si>
   <si>
     <t>there is no god. Science has proven it. It was just an excuse made up so people from simplier times didnt have to think to hard on those big questions.</t>
   </si>
   <si>
+    <t>151,0.0,10.25,0.0,0.07,1.0,0.0,0.0,0.0,0.2,0.3,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg246334</t>
   </si>
   <si>
     <t>As humans, we cannot know exactly if there is a higher force or not. Christianity however is not it. Firstly because it is not one belief that every Christian shares, it lacks solidarity. I compare it to a road with all different kinds of sideways. Ask a question about religion, and lots of people will find one of those sideways to adjust their religion to their personal beliefs.  With Atheïsm, the concept is pretty clear. It is more scientific, and I like that.</t>
   </si>
   <si>
+    <t>467,0.43,13.3,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.03,0.06</t>
+  </si>
+  <si>
     <t>arg250846</t>
   </si>
   <si>
     <t>Atheism; I need at least some evidence before I can believe in magic.</t>
   </si>
   <si>
+    <t>69,0.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg231497</t>
   </si>
   <si>
     <t>INTELLIGENT DESIGN THEORY IS MERELY CHRISTIANITY MASQUERADING AS SCIENCE, BUT THERE IS NO REAL SCIENCE BEHIND INTELLIGENT DESIGN.</t>
   </si>
   <si>
+    <t>129,1.0,24.04,0.0,0.0,1.0,0.0,1.0,0.0,0.15,0.1,0.15,0.03,0.06</t>
+  </si>
+  <si>
     <t>arg613494</t>
   </si>
   <si>
     <t>No one has ever waged a war in the name of atheism.</t>
   </si>
   <si>
+    <t>51,0.0,6.23,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg230146</t>
   </si>
   <si>
     <t>Eh, Atheism is a pretty cool guy. Makes my logic work and doesn't afraid of anything.</t>
   </si>
   <si>
+    <t>85,0.0,9.53,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg231485</t>
   </si>
   <si>
     <t>ever since recorded history weve believed in sky spirits for which no evidence exists at all.</t>
   </si>
   <si>
+    <t>93,0.0,16.16,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg575745</t>
   </si>
   <si>
     <t>No one ever said science is PERFECT. That's the difference between Religion and Science, Science admits it doesn't have all the answers while Religion is SO dogmatic enough to not even recognise FACTS. And even just what TRUTH really stands for.</t>
   </si>
   <si>
+    <t>245,0.0,15.88,0.0,0.0,1.0,0.0,0.1,0.0,0.2,0.1,0.1,0.03,0.06</t>
+  </si>
+  <si>
     <t>arg231491</t>
   </si>
   <si>
     <t>religious people are always using the same argument: you cant prove he doesn't exist!!!!you CANNOT disprove a negative. meaning, you cant prove something is not there,which already is not there.</t>
   </si>
   <si>
+    <t>194,0.0,14.47,0.0,0.07,2.0,0.0,0.03,0.0,0.05,0.2,0.15,0.03,0.06</t>
+  </si>
+  <si>
     <t>arg229697</t>
   </si>
   <si>
     <t>Why do you think we can't stand that question?  ALso you forgot all the other choices. Hinduism, Buddhism, Islam, Shinto, Judaism one and on</t>
   </si>
   <si>
+    <t>140,0.33,12.35,0.0,0.0,0.67,0.0,0.0,0.0,0.0,0.05,0.05,0.03,0.0</t>
+  </si>
+  <si>
     <t>arg229265</t>
   </si>
   <si>
     <t>Christianity is perhaps the most vile ideal to poison the minds of men. It's uses, motives, and fictional stories are quite plainly immoral.  (http://aynrandlexicon.com/lexicon/religion.html)  (http://www.infidels.org/library/modern/richard_carrier/whynotchristian.html)  (http://www.goodreads.com/author/quotes/ 3956.Christopher_Hitchens)</t>
   </si>
   <si>
+    <t>339,0.0,14.6,0.0,0.04,3.33,0.0,0.0,0.0,0.05,0.05,0.1,0.03,0.06</t>
+  </si>
+  <si>
     <t>arg231620</t>
   </si>
   <si>
     <t>For reasons that should be totally obvious, and which I would assume have been thoroughly fleshed out by others involved.</t>
   </si>
   <si>
+    <t>121,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg244514</t>
   </si>
   <si>
     <t>It is ignorant and idiotic to think that god exist. Any other argument is completely invalid.</t>
   </si>
   <si>
+    <t>93,0.0,13.94,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0</t>
+  </si>
+  <si>
     <t>arg488146</t>
   </si>
   <si>
     <t>Christianity: belief in rape, genocide, hell fire, unscientific claims, superstition, eternal torture, pedophilia, incest, matricide, infanticide, bestiality, talking donkeys, talking snakes, etc  Atheism: the rejection of these claims based on logic, observation, and common sense</t>
   </si>
   <si>
+    <t>281,0.0,27.54,0.0,0.03,0.0,0.0,0.0,0.0,0.15,0.2,0.2,0.03,0.06</t>
+  </si>
+  <si>
     <t>arg237637</t>
   </si>
   <si>
     <t>god aint flipppin real, so get over it u dumb belivers of god</t>
   </si>
   <si>
+    <t>61,0.0,9.06,1.0,0.23,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg254062</t>
   </si>
   <si>
     <t>The greatest reason to find any given deity unreasonable is that you can replace it with one who has lied to humanity about literally everything it says, and we wouldn't be the wiser.  What makes it even weaker is that you can also replace it with a series of lies of humans or hallucinations.  There is no a single prophecy in the Bible, and certainly none that have come true.</t>
   </si>
   <si>
+    <t>378,0.33,13.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.14,0.06</t>
+  </si>
+  <si>
     <t>arg250867</t>
   </si>
   <si>
     <t>If god loves everyone then y does he hate gays and the bible is just a book, have you ever wondered that the one cardinal who translated it changed some things to make "god" look good</t>
   </si>
   <si>
+    <t>183,0.0,12.78,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0</t>
+  </si>
+  <si>
     <t>arg231487</t>
   </si>
   <si>
     <t>this is my big problem with christianity: why is it about belief. there have been horrible people who are believers. what about wonderful people who do great things for the world and are atheists. is it fair to punish them for not knowing what the nature od reality is??? I AM an atheist and im a good person. the idea that a mere belief difference can seal ones fate is beyond preposterous, its madness!!</t>
   </si>
   <si>
+    <t>405,0.0,12.71,0.0,0.01,1.29,0.0,0.01,0.0,0.35,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg229484</t>
   </si>
   <si>
     <t>Even if there was a valid proof for the existence of god, there would be no valid proof that that god is Christian or not.</t>
   </si>
   <si>
+    <t>122,0.0,11.24,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg253486</t>
   </si>
   <si>
     <t>This debate presents a false dichotomy in which the only options are christian or atheism. Shouldn't it be "theism or atheism or other"?</t>
   </si>
   <si>
+    <t>136,0.0,14.6,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.03,0.06</t>
+  </si>
+  <si>
     <t>arg488148</t>
   </si>
   <si>
     <t>Did i also mention that christianity condones slavery? If jot I'm sorry</t>
+  </si>
+  <si>
+    <t>71,0.5,12.59,0.0,0.0,0.5,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
   </si>
 </sst>
 </file>
@@ -220,40 +315,44 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
   <fonts count="4">
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -261,337 +360,702 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="1"/>
+    <cellStyle builtinId="5" name="Percent" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="3" name="Comma" xfId="4"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="6" sqref="B8 B10 B14 B22:B23 B26 B28 B1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B1" activeCellId="6" pane="topLeft" sqref="B8 B10 B14 B22:B23 B26 B28 B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.90816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="168.933673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col customWidth="1" max="1" min="1" style="1" width="9.90816326530612"/>
+    <col customWidth="1" max="2" min="2" style="1" width="168.933673469388"/>
+    <col customWidth="1" max="1025" min="3" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row customHeight="1" s="1" r="1" ht="12.8" spans="1:3">
+      <c s="0" r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c s="0" r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row customHeight="1" s="1" r="2" ht="12.8" spans="1:3">
+      <c s="0" r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c s="0" r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="3" ht="12.8" spans="1:3">
+      <c s="0" r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c s="0" r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row customHeight="1" s="1" r="4" ht="12.8" spans="1:3">
+      <c s="0" r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c s="0" r="B4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="5" ht="12.8" spans="1:3">
+      <c s="0" r="A5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c s="0" r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row customHeight="1" s="1" r="6" ht="12.8" spans="1:3">
+      <c s="0" r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c s="0" r="B6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="7" ht="12.8" spans="1:3">
+      <c s="0" r="A7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c s="0" r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row customHeight="1" s="1" r="8" ht="12.8" spans="1:3">
+      <c s="0" r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c s="0" r="B8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="9" ht="12.8" spans="1:3">
+      <c s="0" r="A9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c s="0" r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="C9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row customHeight="1" s="1" r="10" ht="12.8" spans="1:3">
+      <c s="0" r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c s="0" r="B10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="11" ht="12.8" spans="1:3">
+      <c s="0" r="A11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c s="0" r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="C11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row customHeight="1" s="1" r="12" ht="12.8" spans="1:3">
+      <c s="0" r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c s="0" r="B12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="13" ht="12.8" spans="1:3">
+      <c s="0" r="A13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c s="0" r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="C13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row customHeight="1" s="1" r="14" ht="12.8" spans="1:3">
+      <c s="0" r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c s="0" r="B14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="15" ht="12.8" spans="1:3">
+      <c s="0" r="A15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c s="0" r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="C15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row customHeight="1" s="1" r="16" ht="12.8" spans="1:3">
+      <c s="0" r="A16" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c s="0" r="B16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="17" ht="12.8" spans="1:3">
+      <c s="0" r="A17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c s="0" r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="C17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row customHeight="1" s="1" r="18" ht="12.8" spans="1:3">
+      <c s="0" r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c s="0" r="B18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="19" ht="12.8" spans="1:3">
+      <c s="0" r="A19" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c s="0" r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="C19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row customHeight="1" s="1" r="20" ht="12.8" spans="1:3">
+      <c s="0" r="A20" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c s="0" r="B20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="C20" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="21" ht="12.8" spans="1:3">
+      <c s="0" r="A21" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c s="0" r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="C21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row customHeight="1" s="1" r="22" ht="12.8" spans="1:3">
+      <c s="0" r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c s="0" r="B22" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="C22" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="23" ht="12.8" spans="1:3">
+      <c s="0" r="A23" t="s">
         <v>65</v>
       </c>
+      <c s="0" r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="24" ht="12.8" spans="1:3">
+      <c s="0" r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c s="0" r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="25" ht="12.8" spans="1:3">
+      <c s="0" r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c s="0" r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="26" ht="12.8" spans="1:3">
+      <c s="0" r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c s="0" r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="27" ht="12.8" spans="1:3">
+      <c s="0" r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c s="0" r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="28" ht="12.8" spans="1:3">
+      <c s="0" r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c s="0" r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="29" ht="12.8" spans="1:3">
+      <c s="0" r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c s="0" r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="30" ht="12.8" spans="1:3">
+      <c s="0" r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c s="0" r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="31" ht="12.8" spans="1:3">
+      <c s="0" r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c s="0" r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="32" ht="12.8" spans="1:3">
+      <c s="0" r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c s="0" r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="33" ht="12.8" spans="1:3">
+      <c s="0" r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c s="0" r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INDIVIDUAL_ARGUMENTS/chrisathe_athe.xlsx
+++ b/INDIVIDUAL_ARGUMENTS/chrisathe_athe.xlsx
@@ -28,7 +28,7 @@
     <t>Christianity conflicts with historical, archaeological, astronomical, biological, and many other forms of evidence. It denies rational &amp; impartial common sense. Its teachings, written by an all powerful, all knowing, creator of the universe, are filled with contradictions. The arguments for Christianity just don't hold ground (bar one or two, and those are close). Atheism is not perfect, but it is the more logical position of the two.</t>
   </si>
   <si>
-    <t>438,0.2,19.02,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.03,0.0</t>
+    <t>13.4,6.54,1.76,1.89,0.93,0.2,19.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.15,0.06,0.06,0.04,0.07,0.24,0.0,0.0,1.87</t>
   </si>
   <si>
     <t>arg240625</t>
@@ -37,7 +37,7 @@
     <t>christians are also fun to lawl at because they waste half of their sunday going to church. What a waste!!!! HAHAHA</t>
   </si>
   <si>
-    <t>115,0.67,10.77,0.0,0.05,1.67,0.0,0.05,0.0,0.0,0.05,0.05,0.0,0.0</t>
+    <t>7.0,5.48,0.55,1.13,0.49,0.67,10.77,0.0,0.05,1.67,0,0,0.0,0.05,0.0,0.29,0.0,0.24,0.1,0.1,0.1,0.0,0.0,0.0,0.0,0.63</t>
   </si>
   <si>
     <t>arg439197</t>
@@ -46,7 +46,7 @@
     <t>I'm sad to see the way this turned out. With not so little respect and so much spamming. I choose atheism over a Christianity because their is not enough evidence to soothe my curiosity. Christianity raises too many questions that it never answers.</t>
   </si>
   <si>
-    <t>248,0.25,14.54,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.03,0.0</t>
+    <t>10.75,5.77,1.13,1.51,0.75,0.25,14.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.16,0.14,0.14,0.09,0.0,0.0,0.0,0.0,2.46</t>
   </si>
   <si>
     <t>arg488149</t>
@@ -55,7 +55,7 @@
     <t>I am an atheist because i believe that we all have one life that we should enjoy and preserve for all future generations</t>
   </si>
   <si>
-    <t>120,1.0,13.59,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
+    <t>23.0,5.22,0.6,0.38,1.59,1.0,13.59,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.13,0.04,0.22,0.0,0.0,0.13,0.04,0.05,0.0,0.0,1.67</t>
   </si>
   <si>
     <t>arg231494</t>
@@ -64,7 +64,7 @@
     <t>we have scientific evidence that the flood of noah could not have happened. THINK ABOUT THIS : IF THE FLOOD OF NOAH HAPPENED, WE SHOULD EXPECT TO FIND THE REMAINS OF LONG DEAD ANIMALS AND PEOPLE ALL OVER THE WORLD, BUT WE DO NOT FIND THIS AT ALL. DINOSAUR BONES ARE FOUND IN SEVERAL DIFFERENT LAYERS OF ROCK STRATA, AT DIFFERENT DEPTHS. IF THE FLOOD HAD HAPPENED, WE SHOULD EXPECT TO FIND DINOSAURS AND ALL OTHERE REMAINS IN THE SAME LAYER OF ROCK BUT WE DONT.</t>
   </si>
   <si>
-    <t>460,0.5,13.94,0.0,0.02,1.0,0.0,0.84,0.0,0.25,0.2,0.2,0.07,0.0</t>
+    <t>21.5,5.35,2.25,1.51,1.49,0.5,13.94,0.0,0.02,1.0,0,0,0.0,0.84,0.0,0.17,0.01,0.06,0.01,0.01,0.01,0.01,0.0,0.0,0.0,2.5</t>
   </si>
   <si>
     <t>arg230365</t>
@@ -73,7 +73,7 @@
     <t>I'd like to point out how few disputs there are on the Christian side, that's cuz free minded people dont need to convince other's. We know that there isn't a god, and that its up to us to make our lives.</t>
   </si>
   <si>
-    <t>204,0.0,10.15,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0</t>
+    <t>20.5,4.98,1.07,0.76,1.42,0.0,10.15,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.12,0.05,0.22,0.0,0.0,0.1,0.0,0.0,0.0,0.0,2.64</t>
   </si>
   <si>
     <t>arg229388</t>
@@ -82,7 +82,7 @@
     <t>I find most religions absolutely ridiculous and illogical, the only people who follow them are those who were brainwashed in childhood and really have no individual thought process. Most of the followers at least. Then there are theists who will twist ANY logic to fit their views. They're intelligent ones that you have to watch out for ;)  I'm not an atheist by any means, but I'd rather call myself an atheist than a Christian.  It allows for more logic in my mind.</t>
   </si>
   <si>
-    <t>468,0.2,14.59,0.0,0.0,1.0,0.0,0.02,0.0,0.15,0.3,0.4,0.14,0.18</t>
+    <t>16.6,5.64,2.17,1.89,1.15,0.2,14.59,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.07,0.18,0.07,0.07,0.08,0.06,0.1,0.18,0.18,2.24</t>
   </si>
   <si>
     <t>arg244579</t>
@@ -91,7 +91,7 @@
     <t>Neither. Agnostic is the true answer. People can believe there is a God or they can believe there isn't- but they can never know. I personally believe there isn't a God but I can never prove this definitely.</t>
   </si>
   <si>
-    <t>207,0.5,11.67,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.03,0.06</t>
+    <t>9.5,5.45,1.0,1.51,0.66,0.5,11.67,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.21,0.08,0.08,0.11,0.03,0.05,0.06,0.06,4.57</t>
   </si>
   <si>
     <t>arg229398</t>
@@ -100,7 +100,7 @@
     <t>Notmymuse,  Give me one logical reason to believe Christianity. Just one.  I have yet to see one gad damn shred of evidence for Christianity. I have also seen mountains of evidence to the contrary.  Once you have discredited ALL evidence against Christianity, create an argument for Christianity with empirical fact (or a damn solid priori argument).  Once you have done this, disprove ALL logical arguments against Christianity.  Once you have done this, disprove all other religions.  -  Until such a time that you have done ALL of these things, it is illogical to believe in this bible bullshit.</t>
   </si>
   <si>
-    <t>598,0.25,16.55,0.0,0.01,1.0,0.0,0.03,0.0,0.3,0.35,0.35,0.21,0.35</t>
+    <t>12.25,6.1,2.57,3.02,0.85,0.25,16.55,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.19,0.08,0.18,0.03,0.03,0.08,0.01,0.0,0.35,0.35,2.28</t>
   </si>
   <si>
     <t>arg270902</t>
@@ -109,7 +109,7 @@
     <t>Religion in the past has caused many wars. It encourages racism , sexism and homophobia. It is something that gives us prejudice. It makes us hate one another. the time has come to put a stop to it.</t>
   </si>
   <si>
-    <t>198,0.0,10.55,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.05,0.07,0.06</t>
+    <t>7.6,5.21,1.0,1.89,0.53,0.0,10.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.32,0.0,0.0,0.13,0.05,0.05,0.06,0.06,1.93</t>
   </si>
   <si>
     <t>arg328210</t>
@@ -118,7 +118,7 @@
     <t>I'm Christian and very religious, but if the description of this argument is the qualifying factor, I'm going with Atheism. God isn't Christian.</t>
   </si>
   <si>
-    <t>144,0.5,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
+    <t>11.5,6.26,0.6,0.76,0.8,0.5,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.0,0.17,0.09,0.09,0.0,0.09,0.05,0.0,0.0,3.88</t>
   </si>
   <si>
     <t>arg240623</t>
@@ -127,7 +127,7 @@
     <t>there is no god. Science has proven it. It was just an excuse made up so people from simplier times didnt have to think to hard on those big questions.</t>
   </si>
   <si>
-    <t>151,0.0,10.25,0.0,0.07,1.0,0.0,0.0,0.0,0.2,0.3,0.2,0.0,0.0</t>
+    <t>10.0,5.03,0.79,1.13,0.69,0.0,10.25,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.07,0.3,0.07,0.07,0.03,0.0,0.0,0.0,0.0,4.18</t>
   </si>
   <si>
     <t>arg246334</t>
@@ -136,7 +136,7 @@
     <t>As humans, we cannot know exactly if there is a higher force or not. Christianity however is not it. Firstly because it is not one belief that every Christian shares, it lacks solidarity. I compare it to a road with all different kinds of sideways. Ask a question about religion, and lots of people will find one of those sideways to adjust their religion to their personal beliefs.  With Atheïsm, the concept is pretty clear. It is more scientific, and I like that.</t>
   </si>
   <si>
-    <t>467,0.43,13.3,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.03,0.06</t>
+    <t>11.86,5.63,2.17,2.65,0.82,0.43,13.3,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.14,0.07,0.07,0.11,0.02,0.05,0.06,0.06,2.0</t>
   </si>
   <si>
     <t>arg250846</t>
@@ -145,7 +145,7 @@
     <t>Atheism; I need at least some evidence before I can believe in magic.</t>
   </si>
   <si>
-    <t>69,0.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>13.0,5.31,0.34,0.38,0.9,0.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.08,0.15,0.0,0.0,0.15,0.0,0.0,0.0,0.0,6.0</t>
   </si>
   <si>
     <t>arg231497</t>
@@ -154,7 +154,7 @@
     <t>INTELLIGENT DESIGN THEORY IS MERELY CHRISTIANITY MASQUERADING AS SCIENCE, BUT THERE IS NO REAL SCIENCE BEHIND INTELLIGENT DESIGN.</t>
   </si>
   <si>
-    <t>129,1.0,24.04,0.0,0.0,1.0,0.0,1.0,0.0,0.15,0.1,0.15,0.03,0.06</t>
+    <t>18.0,7.17,0.47,0.38,1.25,1.0,24.04,0.0,0.0,1.0,0,0,0.0,1.0,0.0,0.39,0.06,0.06,0.0,0.0,0.0,0.11,0.05,0.06,0.06,2.14</t>
   </si>
   <si>
     <t>arg613494</t>
@@ -163,7 +163,7 @@
     <t>No one has ever waged a war in the name of atheism.</t>
   </si>
   <si>
-    <t>51,0.0,6.23,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>12.0,4.25,0.31,0.38,0.83,0.0,6.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.08,0.08,0.0,0.0,0.0,0.0,0.0,4.0</t>
   </si>
   <si>
     <t>arg230146</t>
@@ -172,7 +172,7 @@
     <t>Eh, Atheism is a pretty cool guy. Makes my logic work and doesn't afraid of anything.</t>
   </si>
   <si>
-    <t>85,0.0,9.53,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.1,0.0,0.0</t>
+    <t>8.0,5.31,0.42,0.76,0.55,0.0,9.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,2.67</t>
   </si>
   <si>
     <t>arg231485</t>
@@ -181,7 +181,7 @@
     <t>ever since recorded history weve believed in sky spirits for which no evidence exists at all.</t>
   </si>
   <si>
-    <t>93,0.0,16.16,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>16.0,5.81,0.42,0.38,1.11,0.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.25,0.06,0.19,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.14</t>
   </si>
   <si>
     <t>arg575745</t>
@@ -190,7 +190,7 @@
     <t>No one ever said science is PERFECT. That's the difference between Religion and Science, Science admits it doesn't have all the answers while Religion is SO dogmatic enough to not even recognise FACTS. And even just what TRUTH really stands for.</t>
   </si>
   <si>
-    <t>245,0.0,15.88,0.0,0.0,1.0,0.0,0.1,0.0,0.2,0.1,0.1,0.03,0.06</t>
+    <t>13.67,5.98,1.07,1.13,0.95,0.0,15.88,0.0,0.0,1.0,0,0,0.0,0.1,0.0,0.24,0.02,0.17,0.17,0.17,0.02,0.02,0.0,0.06,0.06,2.55</t>
   </si>
   <si>
     <t>arg231491</t>
@@ -199,7 +199,7 @@
     <t>religious people are always using the same argument: you cant prove he doesn't exist!!!!you CANNOT disprove a negative. meaning, you cant prove something is not there,which already is not there.</t>
   </si>
   <si>
-    <t>194,0.0,14.47,0.0,0.07,2.0,0.0,0.03,0.0,0.05,0.2,0.15,0.03,0.06</t>
+    <t>10.0,6.47,0.79,1.13,0.69,0.0,14.47,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.13,0.2,0.3,0.13,0.13,0.1,0.0,0.0,0.06,0.06,2.89</t>
   </si>
   <si>
     <t>arg229697</t>
@@ -208,7 +208,7 @@
     <t>Why do you think we can't stand that question?  ALso you forgot all the other choices. Hinduism, Buddhism, Islam, Shinto, Judaism one and on</t>
   </si>
   <si>
-    <t>140,0.33,12.35,0.0,0.0,0.67,0.0,0.0,0.0,0.0,0.05,0.05,0.03,0.0</t>
+    <t>8.0,5.83,0.63,1.13,0.55,0.33,12.35,0.0,0.0,0.67,0,0,0.0,0.0,30.0,0.29,0.04,0.21,0.0,0.0,0.13,0.0,0.0,0.0,0.0,0.89</t>
   </si>
   <si>
     <t>arg229265</t>
@@ -217,7 +217,7 @@
     <t>Christianity is perhaps the most vile ideal to poison the minds of men. It's uses, motives, and fictional stories are quite plainly immoral.  (http://aynrandlexicon.com/lexicon/religion.html)  (http://www.infidels.org/library/modern/richard_carrier/whynotchristian.html)  (http://www.goodreads.com/author/quotes/ 3956.Christopher_Hitchens)</t>
   </si>
   <si>
-    <t>339,0.0,14.6,0.0,0.04,3.33,0.0,0.0,0.0,0.05,0.05,0.1,0.03,0.06</t>
+    <t>9.0,12.56,0.71,1.13,0.62,0.0,14.6,0.0,0.04,3.33,4,0,0.0,0.0,0.0,0.37,0.15,0.15,0.15,0.15,0.0,0.0,0.0,0.06,0.06,0.92</t>
   </si>
   <si>
     <t>arg231620</t>
@@ -226,7 +226,7 @@
     <t>For reasons that should be totally obvious, and which I would assume have been thoroughly fleshed out by others involved.</t>
   </si>
   <si>
-    <t>121,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
+    <t>20.0,6.05,0.52,0.38,1.39,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.25,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.17</t>
   </si>
   <si>
     <t>arg244514</t>
@@ -235,7 +235,7 @@
     <t>It is ignorant and idiotic to think that god exist. Any other argument is completely invalid.</t>
   </si>
   <si>
-    <t>93,0.0,13.94,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0</t>
+    <t>8.0,5.81,0.42,0.76,0.55,0.0,13.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.31,0.25,0.06,0.06,0.06,0.06,0.05,0.0,0.0,3.57</t>
   </si>
   <si>
     <t>arg488146</t>
@@ -244,7 +244,7 @@
     <t>Christianity: belief in rape, genocide, hell fire, unscientific claims, superstition, eternal torture, pedophilia, incest, matricide, infanticide, bestiality, talking donkeys, talking snakes, etc  Atheism: the rejection of these claims based on logic, observation, and common sense</t>
   </si>
   <si>
-    <t>281,0.0,27.54,0.0,0.03,0.0,0.0,0.0,0.0,0.15,0.2,0.2,0.03,0.06</t>
+    <t>35.0,8.03,0.92,0.38,2.43,0.0,27.54,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.54,0.17,0.11,0.0,0.0,0.0,0.14,0.24,0.06,0.06,1.65</t>
   </si>
   <si>
     <t>arg237637</t>
@@ -253,7 +253,7 @@
     <t>god aint flipppin real, so get over it u dumb belivers of god</t>
   </si>
   <si>
-    <t>61,0.0,9.06,1.0,0.23,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>13.0,4.69,0.34,0.38,0.9,0.0,9.06,1.0,0.23,0.0,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,3.0</t>
   </si>
   <si>
     <t>arg254062</t>
@@ -262,7 +262,7 @@
     <t>The greatest reason to find any given deity unreasonable is that you can replace it with one who has lied to humanity about literally everything it says, and we wouldn't be the wiser.  What makes it even weaker is that you can also replace it with a series of lies of humans or hallucinations.  There is no a single prophecy in the Bible, and certainly none that have come true.</t>
   </si>
   <si>
-    <t>378,0.33,13.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.14,0.06</t>
+    <t>23.33,5.4,1.83,1.13,1.62,0.33,13.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.09,0.21,0.06,0.06,0.1,0.03,0.1,0.06,0.06,1.84</t>
   </si>
   <si>
     <t>arg250867</t>
@@ -271,7 +271,7 @@
     <t>If god loves everyone then y does he hate gays and the bible is just a book, have you ever wondered that the one cardinal who translated it changed some things to make "god" look good</t>
   </si>
   <si>
-    <t>183,0.0,12.78,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0</t>
+    <t>36.0,5.08,0.94,0.38,2.5,0.0,12.78,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.25,0.11,0.11,0.08,0.03,0.0,0.0,0.0,2.42</t>
   </si>
   <si>
     <t>arg231487</t>
@@ -280,7 +280,7 @@
     <t>this is my big problem with christianity: why is it about belief. there have been horrible people who are believers. what about wonderful people who do great things for the world and are atheists. is it fair to punish them for not knowing what the nature od reality is??? I AM an atheist and im a good person. the idea that a mere belief difference can seal ones fate is beyond preposterous, its madness!!</t>
   </si>
   <si>
-    <t>405,0.0,12.71,0.0,0.01,1.29,0.0,0.01,0.0,0.35,0.2,0.2,0.0,0.0</t>
+    <t>10.57,5.47,1.94,2.65,0.73,0.0,12.71,0.0,0.01,1.29,0,0,0.0,0.01,0.0,0.27,0.09,0.22,0.01,0.01,0.08,0.03,0.0,0.0,0.0,1.64</t>
   </si>
   <si>
     <t>arg229484</t>
@@ -289,7 +289,7 @@
     <t>Even if there was a valid proof for the existence of god, there would be no valid proof that that god is Christian or not.</t>
   </si>
   <si>
-    <t>122,0.0,11.24,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>25.0,4.88,0.66,0.38,1.73,0.0,11.24,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.12,0.04,0.04,0.0,0.0,0.0,0.0,0.0,3.4</t>
   </si>
   <si>
     <t>arg253486</t>
@@ -298,7 +298,7 @@
     <t>This debate presents a false dichotomy in which the only options are christian or atheism. Shouldn't it be "theism or atheism or other"?</t>
   </si>
   <si>
-    <t>136,0.0,14.6,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.03,0.06</t>
+    <t>11.5,5.91,0.6,0.76,0.8,0.0,14.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.17,0.17,0.0,0.0,0.04,0.0,0.0,0.06,0.06,1.88</t>
   </si>
   <si>
     <t>arg488148</t>
@@ -307,7 +307,7 @@
     <t>Did i also mention that christianity condones slavery? If jot I'm sorry</t>
   </si>
   <si>
-    <t>71,0.5,12.59,0.0,0.0,0.5,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>6.0,5.92,0.31,0.76,0.42,0.5,12.59,0.0,0.0,0.5,0,0,0.0,0.0,10.0,0.42,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0</t>
   </si>
 </sst>
 </file>
